--- a/proposal/dcache/plots/lm_chmod_rename.xlsx
+++ b/proposal/dcache/plots/lm_chmod_rename.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiache/Workspace/oscar/dcache-optimization/papers/sosp15/plots/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiache/Workspace/oscar/chiache-thesis/proposal/dcache/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,6 +17,9 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -42,16 +45,20 @@
     <t>single file</t>
   </si>
   <si>
-    <t>depth=1, 10 files</t>
+    <t>depth=1,
+10 files</t>
   </si>
   <si>
-    <t>depth=2, 100 files</t>
+    <t>depth=2,
+100 files</t>
   </si>
   <si>
-    <t>depth=3, 1000 files</t>
+    <t>depth=3,
+1000 files</t>
   </si>
   <si>
-    <t>depth=4, 10000 files</t>
+    <t>depth=4,
+10000 files</t>
   </si>
 </sst>
 </file>
@@ -103,11 +110,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -147,10 +157,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.216922115450062"/>
-          <c:y val="0.0364102564102564"/>
+          <c:x val="0.218044740589617"/>
+          <c:y val="0.0859707406476659"/>
           <c:w val="0.765836041924303"/>
-          <c:h val="0.681915846927761"/>
+          <c:h val="0.688564783923604"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -237,16 +247,16 @@
                   <c:v>single file</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>depth=1, 10 files</c:v>
+                  <c:v>depth=1,_x000d_10 files</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>depth=2, 100 files</c:v>
+                  <c:v>depth=2,_x000d_100 files</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>depth=3, 1000 files</c:v>
+                  <c:v>depth=3,_x000d_1000 files</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>depth=4, 10000 files</c:v>
+                  <c:v>depth=4,_x000d_10000 files</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -381,16 +391,16 @@
                   <c:v>single file</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>depth=1, 10 files</c:v>
+                  <c:v>depth=1,_x000d_10 files</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>depth=2, 100 files</c:v>
+                  <c:v>depth=2,_x000d_100 files</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>depth=3, 1000 files</c:v>
+                  <c:v>depth=3,_x000d_1000 files</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>depth=4, 10000 files</c:v>
+                  <c:v>depth=4,_x000d_10000 files</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -430,11 +440,11 @@
         </c:dLbls>
         <c:gapWidth val="125"/>
         <c:overlap val="-50"/>
-        <c:axId val="-2126098656"/>
-        <c:axId val="-2080437216"/>
+        <c:axId val="2144093248"/>
+        <c:axId val="2108620112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2126098656"/>
+        <c:axId val="2144093248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -459,7 +469,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -471,7 +481,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2080437216"/>
+        <c:crossAx val="2108620112"/>
         <c:crossesAt val="0.01"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -479,7 +489,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2080437216"/>
+        <c:axId val="2108620112"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -507,7 +517,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -517,7 +527,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="3200" b="1" i="0">
+                  <a:rPr lang="en-US" sz="2800" b="1" i="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -528,7 +538,7 @@
                   <a:t>chmod/rename</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="3200" b="1" baseline="0">
+                  <a:rPr lang="en-US" sz="2800" b="1" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -538,7 +548,7 @@
                   </a:rPr>
                   <a:t> Latency Slowdown</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="3200" b="1">
+                <a:endParaRPr lang="en-US" sz="2800" b="1">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -553,8 +563,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00679276605110861"/>
-              <c:y val="0.00906782204913917"/>
+              <c:x val="0.00567014091155393"/>
+              <c:y val="0.0258050329725561"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -570,7 +580,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -601,7 +611,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -613,7 +623,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2126098656"/>
+        <c:crossAx val="2144093248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -631,10 +641,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.223354315521309"/>
-          <c:y val="0.0559875252695641"/>
-          <c:w val="0.187002564358685"/>
-          <c:h val="0.281855810959309"/>
+          <c:x val="0.224476940660864"/>
+          <c:y val="0.0896912559900866"/>
+          <c:w val="0.313859205128364"/>
+          <c:h val="0.118152060754139"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -652,7 +662,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="3600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1251,14 +1261,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>156308</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>771770</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>156307</xdr:rowOff>
+      <xdr:rowOff>156306</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1590,7 +1600,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1653,8 +1663,8 @@
         <v>-1.6671056096918713E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3">
@@ -1690,8 +1700,8 @@
         <v>5.8754273552652454E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3">
@@ -1727,8 +1737,8 @@
         <v>0.70303222589856307</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3">
@@ -1764,8 +1774,8 @@
         <v>8.1041685566542689</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3">
